--- a/biology/Zoologie/Carcharodus/Carcharodus.xlsx
+++ b/biology/Zoologie/Carcharodus/Carcharodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharodus est un genre paléarctique de lépidoptères de la famille des Hesperiidae et de la sous-famille des Pyrginae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos du genre Carcharodus sont de petits papillons dont l'ornementation de la face supérieure est faite de marbrures complexes dans des tons bruns, beiges et/ou gris, avec quelques taches translucides sur l'aile antérieure et souvent des taches blanchâtres sur l'aile postérieure.
 Le bord de l'aile postérieure est festonné et les franges sont blanches entrecoupées de sombre.
@@ -544,7 +558,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Carcharodus a une répartition paléarctique, la plus grande diversité spécifique se trouvant en Europe du Sud et au Moyen-Orient.
 </t>
@@ -575,14 +591,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Carcharodus a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Carcharodus a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
 L'espèce type pour le genre est Carcharodus alceae. Le genre comporte huit espèces.
-Synonymes
-Spilothyrus Duponchel, 1835
-Reverdinus Ragusa, 1919
-Lavatheria Verity, 1940</t>
+</t>
         </is>
       </c>
     </row>
@@ -607,13 +622,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Spilothyrus Duponchel, 1835
+Reverdinus Ragusa, 1919
+Lavatheria Verity, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carcharodus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcharodus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharodus alceae (Esper, 1780) — l'Hespérie de l'alcée — en Europe, en Asie tempérée et au Moyen-Orient
-Carcharodus baeticus (Rambur, [1839]) — l'Hespérie de la ballote — dans le Sud de l'Europe et au Moyen-Orient
+Carcharodus baeticus (Rambur, ) — l'Hespérie de la ballote — dans le Sud de l'Europe et au Moyen-Orient
 Carcharodus dravira (Moore, 1874) — du Moyen-Orient à l'Asie centrale
 Carcharodus floccifer (Zeller, 1847) — l'Hespérie du marrube — en Europe, au Moyen-Orient, en Asie centrale et au Maroc
 Carcharodus lavatherae (Esper, 1783) — l'Hespérie de l'épiaire — dans le Sud de l'Europe, en Afrique du Nord et au Moyen-Orient
